--- a/docs/Main_generated_pop.xlsx
+++ b/docs/Main_generated_pop.xlsx
@@ -22,20 +22,22 @@
     <sheet name="herregistratie2" sheetId="14" r:id="rId16"/>
     <sheet name="InschrijfId" sheetId="15" r:id="rId17"/>
     <sheet name="inschrijvingsWeigering" sheetId="16" r:id="rId18"/>
-    <sheet name="kwalificatiedatum" sheetId="17" r:id="rId19"/>
-    <sheet name="nationaliteit1" sheetId="18" r:id="rId20"/>
-    <sheet name="Nationaliteitid" sheetId="19" r:id="rId21"/>
-    <sheet name="nietVerplicht" sheetId="20" r:id="rId22"/>
-    <sheet name="opgenomenInSpecialistenRegister" sheetId="21" r:id="rId23"/>
-    <sheet name="Persoon" sheetId="22" r:id="rId24"/>
-    <sheet name="RegisterId" sheetId="23" r:id="rId25"/>
-    <sheet name="Registratie" sheetId="24" r:id="rId26"/>
-    <sheet name="registratiedatum" sheetId="25" r:id="rId27"/>
-    <sheet name="sessionToday" sheetId="26" r:id="rId28"/>
-    <sheet name="tandarts" sheetId="27" r:id="rId29"/>
-    <sheet name="vandaag" sheetId="28" r:id="rId30"/>
-    <sheet name="verklaringdatum" sheetId="29" r:id="rId31"/>
-    <sheet name="verplicht" sheetId="30" r:id="rId32"/>
+    <sheet name="ja" sheetId="17" r:id="rId19"/>
+    <sheet name="kwalificatiedatum" sheetId="18" r:id="rId20"/>
+    <sheet name="nationaliteit1" sheetId="19" r:id="rId21"/>
+    <sheet name="Nationaliteitid" sheetId="20" r:id="rId22"/>
+    <sheet name="nee" sheetId="21" r:id="rId23"/>
+    <sheet name="nietVerplicht" sheetId="22" r:id="rId24"/>
+    <sheet name="opgenomenInSpecialistenRegister" sheetId="23" r:id="rId25"/>
+    <sheet name="Persoon" sheetId="24" r:id="rId26"/>
+    <sheet name="RegisterId" sheetId="25" r:id="rId27"/>
+    <sheet name="Registratie" sheetId="26" r:id="rId28"/>
+    <sheet name="registratiedatum" sheetId="27" r:id="rId29"/>
+    <sheet name="sessionToday" sheetId="28" r:id="rId30"/>
+    <sheet name="tandarts" sheetId="29" r:id="rId31"/>
+    <sheet name="vandaag" sheetId="30" r:id="rId32"/>
+    <sheet name="verklaringdatum" sheetId="31" r:id="rId33"/>
+    <sheet name="verplicht" sheetId="32" r:id="rId34"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -150,7 +152,7 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>JaOfNee</t>
+    <t>Ja_Of_Nee</t>
   </si>
   <si>
     <t>Ja_of_Nee</t>
@@ -282,9 +284,6 @@
     <t>aantekening1</t>
   </si>
   <si>
-    <t>aantekening_1</t>
-  </si>
-  <si>
     <t>adres1</t>
   </si>
   <si>
@@ -312,6 +311,9 @@
     <t>buitenlandsadres</t>
   </si>
   <si>
+    <t>deelToegang</t>
+  </si>
+  <si>
     <t>diplomadatum</t>
   </si>
   <si>
@@ -369,6 +371,9 @@
     <t>inschrijvingsWeigering</t>
   </si>
   <si>
+    <t>ja</t>
+  </si>
+  <si>
     <t>klinisch technoloog</t>
   </si>
   <si>
@@ -382,6 +387,9 @@
   </si>
   <si>
     <t>nationaliteit1</t>
+  </si>
+  <si>
+    <t>nee</t>
   </si>
   <si>
     <t>nietVerplicht</t>
@@ -446,7 +454,7 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>78</v>
@@ -454,7 +462,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -611,18 +619,21 @@
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -634,15 +645,18 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -655,10 +669,11 @@
       </c>
       <c r="C3" t="n"/>
       <c r="D3" t="n"/>
-      <c r="E3" t="s">
+      <c r="E3" t="n"/>
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -671,10 +686,11 @@
       </c>
       <c r="C4" t="n"/>
       <c r="D4" t="n"/>
-      <c r="E4" t="s">
+      <c r="E4" t="n"/>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -687,10 +703,11 @@
       </c>
       <c r="C5" t="n"/>
       <c r="D5" t="n"/>
-      <c r="E5" t="s">
+      <c r="E5" t="n"/>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -726,10 +743,41 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -744,7 +792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -752,7 +800,7 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -791,7 +839,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -805,7 +876,7 @@
         <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -862,36 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -899,7 +941,7 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -922,7 +964,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -930,7 +1003,7 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -945,7 +1018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -959,13 +1032,13 @@
         <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1046,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -1063,7 +1136,7 @@
         <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1095,7 +1168,7 @@
         <v>-36524</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
@@ -1110,7 +1183,7 @@
         <v>-36524</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
@@ -1140,7 +1213,7 @@
         <v>-36524</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="7">
@@ -1170,7 +1243,7 @@
         <v>-36524</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="9">
@@ -1185,7 +1258,7 @@
         <v>-36524</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="10">
@@ -1200,7 +1273,7 @@
         <v>-36524</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="11">
@@ -1215,7 +1288,7 @@
         <v>-36524</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="12">
@@ -1230,7 +1303,7 @@
         <v>-36524</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="13">
@@ -1245,14 +1318,14 @@
         <v>-36524</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -1260,7 +1333,7 @@
         <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1283,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -1291,7 +1364,7 @@
         <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1306,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -1314,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1329,7 +1402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
@@ -1337,7 +1410,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1360,52 +1433,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
@@ -1414,7 +1441,7 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1430,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
@@ -1438,7 +1465,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
@@ -1446,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1458,10 +1485,56 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1492,10 +1565,10 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1511,21 +1584,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n"/>
       <c r="C3" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n"/>
       <c r="C4" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n"/>
       <c r="C5" t="n"/>
@@ -1542,7 +1615,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1573,7 +1646,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">

--- a/docs/Main_generated_pop.xlsx
+++ b/docs/Main_generated_pop.xlsx
@@ -152,9 +152,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Ja_Of_Nee</t>
-  </si>
-  <si>
     <t>Ja_of_Nee</t>
   </si>
   <si>
@@ -454,15 +451,15 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -477,10 +474,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -500,10 +497,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -511,31 +508,31 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +544,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -570,7 +567,30 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>101</v>
@@ -578,29 +598,6 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
@@ -616,26 +613,26 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
       <c r="A2" t="s">
@@ -645,7 +642,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -654,10 +651,10 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -671,7 +668,7 @@
       <c r="D3" t="n"/>
       <c r="E3" t="n"/>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -688,7 +685,7 @@
       <c r="D4" t="n"/>
       <c r="E4" t="n"/>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -705,7 +702,7 @@
       <c r="D5" t="n"/>
       <c r="E5" t="n"/>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -720,7 +717,30 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>107</v>
@@ -728,33 +748,10 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -774,10 +771,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -797,23 +794,23 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -821,7 +818,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -829,7 +826,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -844,10 +841,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -867,21 +864,21 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>43</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -890,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -914,7 +911,7 @@
         <v>-27393</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
@@ -926,7 +923,7 @@
         <v>-31046</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -938,26 +935,26 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -969,26 +966,26 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1000,15 +997,15 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1023,27 +1020,27 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1052,24 +1049,24 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="n">
         <v>-36524</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1081,38 +1078,38 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="n">
         <v>-36159</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n"/>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="n">
         <v>-25913</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n"/>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1124,36 +1121,36 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>56</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -1168,7 +1165,7 @@
         <v>-36524</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
@@ -1183,7 +1180,7 @@
         <v>-36524</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
@@ -1198,7 +1195,7 @@
         <v>-36524</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="6">
@@ -1207,13 +1204,13 @@
       </c>
       <c r="B6" t="n"/>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
         <v>-36524</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="7">
@@ -1228,7 +1225,7 @@
         <v>-36524</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="8">
@@ -1237,13 +1234,13 @@
       </c>
       <c r="B8" t="n"/>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
         <v>-36524</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="9">
@@ -1258,7 +1255,7 @@
         <v>-36524</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="10">
@@ -1273,7 +1270,7 @@
         <v>-36524</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="11">
@@ -1288,7 +1285,7 @@
         <v>-36524</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="12">
@@ -1303,7 +1300,7 @@
         <v>-36524</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="13">
@@ -1318,7 +1315,7 @@
         <v>-36524</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1330,15 +1327,15 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -1361,6 +1358,29 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
         <v>73</v>
       </c>
       <c r="B1" t="s">
@@ -1379,46 +1399,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -1438,15 +1435,15 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1454,26 +1451,26 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1485,64 +1482,64 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -1562,13 +1559,13 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1584,21 +1581,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="n"/>
       <c r="C3" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="n"/>
       <c r="C4" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="n"/>
       <c r="C5" t="n"/>
@@ -1612,18 +1609,18 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -1643,18 +1640,18 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
@@ -1674,10 +1671,10 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1697,7 +1694,30 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>91</v>
@@ -1705,29 +1725,6 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
